--- a/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="103">
   <si>
     <t>版本号</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>v0.1.2</t>
+  </si>
+  <si>
+    <t>SRA2021_G05_项目章程</t>
+  </si>
+  <si>
+    <t>v1.0.0</t>
+  </si>
+  <si>
+    <t>v1.0.1</t>
   </si>
   <si>
     <t>需求分析阶段</t>
@@ -321,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -343,8 +352,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,31 +405,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,8 +427,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,48 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,14 +483,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +505,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,25 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,19 +583,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +613,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,79 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +696,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,15 +728,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,15 +747,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -749,15 +758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,6 +779,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -795,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +816,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1324,8 +1333,12 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>7671</v>
+      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
@@ -1337,8 +1350,12 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>7967</v>
+      </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
@@ -1350,8 +1367,12 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>8643</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
@@ -1363,8 +1384,12 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>9212</v>
+      </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
@@ -1376,8 +1401,12 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>9700</v>
+      </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
@@ -1389,8 +1418,12 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>13879</v>
+      </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
@@ -1402,8 +1435,12 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>13894</v>
+      </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
@@ -1489,6 +1526,12 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>3910</v>
+      </c>
       <c r="E15" t="s">
         <v>24</v>
       </c>
@@ -1500,6 +1543,12 @@
       <c r="B16" t="s">
         <v>11</v>
       </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>4530</v>
+      </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
@@ -1511,6 +1560,12 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>4618</v>
+      </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
@@ -1552,182 +1607,185 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>692</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>2541</v>
+        <v>834</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1337</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
       </c>
-      <c r="D22">
-        <v>4200</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>10777</v>
+        <v>1688</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>7599</v>
+        <v>1918</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>1932</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>16</v>
-      </c>
-      <c r="D25">
-        <v>8444</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>9822</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>47</v>
-      </c>
       <c r="D27">
-        <v>12848</v>
+        <v>2541</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>18154</v>
+        <v>4200</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>19990</v>
+        <v>10777</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>21741</v>
+        <v>7599</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1735,13 +1793,13 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>21805</v>
+        <v>8444</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
@@ -1752,13 +1810,13 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C32">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>30619</v>
+        <v>9822</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -1769,13 +1827,13 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="D33">
-        <v>30603</v>
+        <v>12848</v>
       </c>
       <c r="E33" t="s">
         <v>20</v>
@@ -1786,13 +1844,13 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="D34">
-        <v>30618</v>
+        <v>18154</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
@@ -1803,13 +1861,13 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="D35">
-        <v>40824</v>
+        <v>19990</v>
       </c>
       <c r="E35" t="s">
         <v>20</v>
@@ -1823,13 +1881,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="D36">
-        <v>40996</v>
+        <v>21741</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1840,10 +1898,10 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="D37">
-        <v>42115</v>
+        <v>21805</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1857,10 +1915,10 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="D38">
-        <v>42085</v>
+        <v>30619</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
@@ -1871,13 +1929,13 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="D39">
-        <v>43573</v>
+        <v>30603</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -1888,13 +1946,13 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="D40">
-        <v>48649</v>
+        <v>30618</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1905,16 +1963,16 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="D41">
-        <v>51664</v>
+        <v>40824</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1922,13 +1980,13 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="D42">
-        <v>52369</v>
+        <v>40996</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
@@ -1939,16 +1997,16 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="D43">
-        <v>55050</v>
+        <v>42115</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1956,13 +2014,13 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="D44">
-        <v>55068</v>
+        <v>42085</v>
       </c>
       <c r="E44" t="s">
         <v>20</v>
@@ -1973,16 +2031,16 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C45">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="D45">
-        <v>55474</v>
+        <v>43573</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1993,10 +2051,10 @@
         <v>41</v>
       </c>
       <c r="C46">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D46">
-        <v>55501</v>
+        <v>48649</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -2010,152 +2068,152 @@
         <v>42</v>
       </c>
       <c r="C47">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D47">
-        <v>55501</v>
+        <v>51664</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
         <v>43</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
       <c r="C48">
-        <v>6</v>
+        <v>331</v>
       </c>
       <c r="D48">
-        <v>1240</v>
+        <v>52369</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>44</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>339</v>
       </c>
       <c r="D49">
-        <v>5785</v>
+        <v>55050</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="D50">
-        <v>6371</v>
+        <v>55068</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="D51">
-        <v>6371</v>
+        <v>55474</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="D52">
-        <v>6488</v>
+        <v>55501</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="D53">
-        <v>6990</v>
+        <v>55501</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>7340</v>
+        <v>1240</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>9011</v>
+        <v>5785</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -2166,16 +2224,16 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>9366</v>
+        <v>6371</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
@@ -2183,13 +2241,13 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>9707</v>
+        <v>6371</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -2200,170 +2258,158 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>6488</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>6990</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>7340</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>9011</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <v>39</v>
+      </c>
+      <c r="D62">
+        <v>9366</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63">
+        <v>41</v>
+      </c>
+      <c r="D63">
+        <v>9707</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64">
         <v>44</v>
       </c>
-      <c r="D58">
+      <c r="D64">
         <v>10866</v>
       </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="D59">
+      <c r="D65">
         <v>285</v>
       </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60">
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
         <v>2</v>
       </c>
-      <c r="D60">
+      <c r="D66">
         <v>415</v>
       </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>434</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>434</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>9</v>
-      </c>
-      <c r="D63">
-        <v>708</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>545</v>
-      </c>
-      <c r="E64" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <v>742</v>
-      </c>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>860</v>
-      </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
@@ -2371,67 +2417,76 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>434</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
         <v>52</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>8</v>
-      </c>
-      <c r="D67">
-        <v>1068</v>
-      </c>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
       <c r="B68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>1090</v>
+        <v>434</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>981</v>
+        <v>708</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>1158</v>
+        <v>545</v>
       </c>
       <c r="E70" t="s">
         <v>20</v>
@@ -2442,13 +2497,13 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>1018</v>
+        <v>742</v>
       </c>
       <c r="E71" t="s">
         <v>20</v>
@@ -2459,13 +2514,13 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>1423</v>
+        <v>860</v>
       </c>
       <c r="E72" t="s">
         <v>20</v>
@@ -2476,22 +2531,22 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>440</v>
+        <v>1068</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="2:6">
@@ -2499,10 +2554,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>6155</v>
+        <v>1090</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
@@ -2516,10 +2571,10 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>6223</v>
+        <v>981</v>
       </c>
       <c r="E75" t="s">
         <v>20</v>
@@ -2528,18 +2583,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>54</v>
-      </c>
+    <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>588</v>
+        <v>1158</v>
       </c>
       <c r="E76" t="s">
         <v>20</v>
@@ -2550,87 +2602,84 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>1018</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>1423</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>440</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
         <v>11</v>
       </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>960</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78">
-        <v>1062</v>
-      </c>
-      <c r="E78" t="s">
-        <v>20</v>
-      </c>
-      <c r="F78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>2458</v>
-      </c>
-      <c r="E79" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
       <c r="C80">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D80">
-        <v>1174</v>
+        <v>6155</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>2634</v>
+        <v>6223</v>
       </c>
       <c r="E81" t="s">
         <v>20</v>
@@ -2647,16 +2696,16 @@
         <v>7</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>665</v>
+        <v>588</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="2:6">
@@ -2664,30 +2713,33 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>680</v>
+        <v>960</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>4554</v>
+        <v>1062</v>
       </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F84" t="s">
         <v>8</v>
@@ -2695,84 +2747,90 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>8745</v>
+        <v>2458</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>8979</v>
+        <v>1174</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>11927</v>
+        <v>2634</v>
       </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>13742</v>
+        <v>665</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>15116</v>
+        <v>680</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
         <v>8</v>
@@ -2780,13 +2838,13 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D90">
-        <v>15290</v>
+        <v>4554</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -2797,53 +2855,50 @@
     </row>
     <row r="91" spans="2:6">
       <c r="B91" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C91">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="D91">
-        <v>20148</v>
+        <v>8745</v>
       </c>
       <c r="E91" t="s">
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>58</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
       <c r="B92" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D92">
-        <v>2829</v>
+        <v>8979</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D93">
-        <v>3076</v>
+        <v>11927</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
@@ -2851,16 +2906,16 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C94">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D94">
-        <v>3434</v>
+        <v>13742</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
         <v>8</v>
@@ -2868,16 +2923,16 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="D95">
-        <v>3456</v>
+        <v>15116</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
         <v>8</v>
@@ -2885,16 +2940,16 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D96">
-        <v>3446</v>
+        <v>15290</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
         <v>8</v>
@@ -2902,95 +2957,104 @@
     </row>
     <row r="97" spans="2:6">
       <c r="B97" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C97">
+        <v>173</v>
+      </c>
+      <c r="D97">
+        <v>20148</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
         <v>11</v>
       </c>
-      <c r="D97">
-        <v>4209</v>
-      </c>
-      <c r="E97" t="s">
-        <v>59</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98">
-        <v>12</v>
-      </c>
       <c r="D98">
-        <v>4143</v>
+        <v>2829</v>
       </c>
       <c r="E98" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>3076</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" t="s">
         <v>12</v>
       </c>
-      <c r="D99">
-        <v>4158</v>
-      </c>
-      <c r="E99" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>61</v>
-      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>3434</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
       <c r="B101" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D101">
-        <v>258</v>
+        <v>3456</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>62</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
       <c r="B102" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <v>2608</v>
+        <v>3446</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
@@ -2998,226 +3062,217 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103">
         <v>11</v>
       </c>
-      <c r="C103">
-        <v>9</v>
-      </c>
       <c r="D103">
-        <v>2569</v>
+        <v>4209</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
+    <row r="104" spans="2:6">
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>4143</v>
+      </c>
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>4158</v>
+      </c>
+      <c r="E105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104">
-        <v>10</v>
-      </c>
-      <c r="D104">
-        <v>1444</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>1569</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>65</v>
-      </c>
-      <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106">
-        <v>8</v>
-      </c>
-      <c r="D106">
-        <v>1240</v>
-      </c>
-      <c r="E106" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>258</v>
+      </c>
+      <c r="E107" t="s">
+        <v>62</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
         <v>9</v>
       </c>
-      <c r="D107">
-        <v>2176</v>
-      </c>
-      <c r="E107" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>68</v>
-      </c>
+      <c r="D108">
+        <v>2608</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
       <c r="B109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>98</v>
+        <v>2569</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>815</v>
+        <v>1444</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>1701</v>
+        <v>1569</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D112">
-        <v>8303</v>
+        <v>1240</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D113">
-        <v>1926</v>
+        <v>2176</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F113" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>2547</v>
+        <v>98</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s">
         <v>8</v>
@@ -3225,19 +3280,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>3892</v>
+        <v>815</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
         <v>8</v>
@@ -3245,16 +3300,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>1381</v>
+        <v>1701</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -3265,64 +3320,64 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D118">
-        <v>2199</v>
+        <v>8303</v>
       </c>
       <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>1926</v>
+      </c>
+      <c r="E119" t="s">
         <v>16</v>
       </c>
-      <c r="F118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>79</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120">
-        <v>8</v>
-      </c>
-      <c r="D120">
-        <v>2380</v>
-      </c>
-      <c r="E120" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121">
-        <v>5129</v>
+        <v>2547</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
         <v>8</v>
@@ -3330,19 +3385,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D122">
-        <v>2849</v>
+        <v>3892</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F122" t="s">
         <v>8</v>
@@ -3350,19 +3405,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
       </c>
       <c r="C123">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>4687</v>
+        <v>1381</v>
       </c>
       <c r="E123" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F123" t="s">
         <v>8</v>
@@ -3370,19 +3425,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
       </c>
       <c r="C124">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D124">
-        <v>3574</v>
+        <v>2199</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
         <v>8</v>
@@ -3390,24 +3445,24 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D126">
-        <v>358</v>
+        <v>2380</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
         <v>8</v>
@@ -3415,19 +3470,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D127">
-        <v>342</v>
+        <v>5129</v>
       </c>
       <c r="E127" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
         <v>8</v>
@@ -3435,16 +3490,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <v>470</v>
+        <v>2849</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
@@ -3455,16 +3510,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
       </c>
       <c r="C129">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>1585</v>
+        <v>4687</v>
       </c>
       <c r="E129" t="s">
         <v>16</v>
@@ -3475,16 +3530,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D130">
-        <v>407</v>
+        <v>3574</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -3495,24 +3550,24 @@
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>5219</v>
+        <v>358</v>
       </c>
       <c r="E132" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
         <v>8</v>
@@ -3520,19 +3575,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>1529</v>
+        <v>342</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
         <v>8</v>
@@ -3540,19 +3595,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E134" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F134" t="s">
         <v>8</v>
@@ -3560,64 +3615,64 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
       </c>
       <c r="C135">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D135">
-        <v>3995</v>
+        <v>1585</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>96</v>
-      </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137">
-        <v>3</v>
-      </c>
-      <c r="D137">
-        <v>1210</v>
-      </c>
-      <c r="E137" t="s">
-        <v>28</v>
-      </c>
-      <c r="F137" t="s">
-        <v>8</v>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>407</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D138">
-        <v>1907</v>
+        <v>5219</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
         <v>8</v>
@@ -3625,19 +3680,19 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>758</v>
+        <v>1529</v>
       </c>
       <c r="E139" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F139" t="s">
         <v>8</v>
@@ -3645,21 +3700,126 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>483</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>3995</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
         <v>99</v>
       </c>
-      <c r="B140" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140">
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>1210</v>
+      </c>
+      <c r="E143" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>100</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>1907</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>101</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>758</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>102</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
         <v>6</v>
       </c>
-      <c r="D140">
+      <c r="D146">
         <v>2449</v>
       </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s">
         <v>8</v>
       </c>
     </row>

--- a/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="103">
   <si>
     <t>版本号</t>
   </si>
@@ -34,15 +34,30 @@
     <t>项目计划阶段</t>
   </si>
   <si>
+    <t>SRA2021-G05-配置管理文档</t>
+  </si>
+  <si>
+    <t>v0.1.0</t>
+  </si>
+  <si>
+    <t>朱涵</t>
+  </si>
+  <si>
+    <t>邢海粟</t>
+  </si>
+  <si>
+    <t>v0.1.1</t>
+  </si>
+  <si>
+    <t>v1.0.0</t>
+  </si>
+  <si>
     <t>SRA2021-G05-风险管理计划</t>
   </si>
   <si>
     <t>v0.0.1</t>
   </si>
   <si>
-    <t>邢海粟</t>
-  </si>
-  <si>
     <t>SRA2021-G05-软件开发计划(SDP)</t>
   </si>
   <si>
@@ -61,24 +76,15 @@
     <t>v0.0.5</t>
   </si>
   <si>
-    <t>v0.1.0</t>
-  </si>
-  <si>
     <t>黄德煜</t>
   </si>
   <si>
-    <t>v0.1.1</t>
-  </si>
-  <si>
     <t>v0.2.0</t>
   </si>
   <si>
     <t>v0.2.1</t>
   </si>
   <si>
-    <t>朱涵</t>
-  </si>
-  <si>
     <t>v0.2.2</t>
   </si>
   <si>
@@ -97,9 +103,6 @@
     <t>SRA2021_G05_项目章程</t>
   </si>
   <si>
-    <t>v1.0.0</t>
-  </si>
-  <si>
     <t>v1.0.1</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>SRS-2021-G05-数据字典</t>
-  </si>
-  <si>
-    <t>v0.0.10</t>
   </si>
   <si>
     <t>SRA2021-G05-给杨枨教授的邀请函</t>
@@ -330,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -352,8 +352,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -368,7 +382,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,22 +397,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,13 +405,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +426,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -435,8 +441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,16 +457,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,15 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,43 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +529,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,13 +577,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,85 +619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +655,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,6 +696,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,47 +771,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,26 +796,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,16 +816,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,120 +837,123 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1307,128 +1310,133 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>2444</v>
+        <v>2816</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>7671</v>
+        <v>2830</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>7967</v>
+        <v>2844</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>8643</v>
+        <v>2444</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>9212</v>
+        <v>2444</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>9700</v>
+        <v>7671</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>13879</v>
+        <v>7967</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1436,16 +1444,16 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>13894</v>
+        <v>8643</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1453,16 +1461,16 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>14412</v>
+        <v>9212</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1470,268 +1478,277 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14419</v>
+        <v>9700</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>14426</v>
+        <v>13879</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>1356</v>
+        <v>13894</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D15">
-        <v>3910</v>
+        <v>14412</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>4530</v>
+        <v>14419</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>4618</v>
+        <v>14426</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>5048</v>
+        <v>14426</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>1356</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>1356</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>5055</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>3910</v>
+      </c>
+      <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>692</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>834</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>1337</v>
+        <v>4530</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>1688</v>
+        <v>4618</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>1918</v>
+        <v>5048</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>1932</v>
+        <v>5055</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>5055</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>2541</v>
+        <v>692</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1739,16 +1756,16 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>4200</v>
+        <v>834</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1756,39 +1773,36 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>10777</v>
+        <v>1337</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>7599</v>
+        <v>1688</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1796,152 +1810,146 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>8444</v>
+        <v>1918</v>
       </c>
       <c r="E31" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>9822</v>
+        <v>1932</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>47</v>
-      </c>
-      <c r="D33">
-        <v>12848</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>18154</v>
+        <v>2541</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>19990</v>
+        <v>4200</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>21741</v>
+        <v>10777</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>21805</v>
+        <v>10777</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>30619</v>
+        <v>7599</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>30603</v>
+        <v>8444</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -1949,800 +1957,776 @@
         <v>17</v>
       </c>
       <c r="C40">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>30618</v>
+        <v>9822</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>40824</v>
+        <v>12848</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C42">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="D42">
-        <v>40996</v>
+        <v>18154</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="D43">
-        <v>42115</v>
+        <v>19990</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="D44">
-        <v>42085</v>
+        <v>21741</v>
       </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>276</v>
+        <v>108</v>
       </c>
       <c r="D45">
-        <v>43573</v>
+        <v>21805</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="D46">
-        <v>48649</v>
+        <v>30619</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>326</v>
+        <v>171</v>
       </c>
       <c r="D47">
-        <v>51664</v>
+        <v>30603</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c r="D48">
-        <v>52369</v>
+        <v>30618</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C49">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="D49">
-        <v>55050</v>
+        <v>40824</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>337</v>
+        <v>260</v>
       </c>
       <c r="D50">
-        <v>55068</v>
+        <v>40996</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C51">
-        <v>338</v>
+        <v>273</v>
       </c>
       <c r="D51">
-        <v>55474</v>
+        <v>42115</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="D52">
-        <v>55501</v>
+        <v>42085</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C53">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="D53">
-        <v>55501</v>
+        <v>43573</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>326</v>
       </c>
       <c r="D54">
-        <v>1240</v>
+        <v>48649</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>47</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C55">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="D55">
-        <v>5785</v>
+        <v>51664</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="D56">
-        <v>6371</v>
+        <v>52369</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="D57">
-        <v>6371</v>
+        <v>55050</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>337</v>
       </c>
       <c r="D58">
-        <v>6488</v>
+        <v>55068</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="D59">
-        <v>6990</v>
+        <v>55474</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>338</v>
       </c>
       <c r="D60">
-        <v>7340</v>
+        <v>55501</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="D61">
-        <v>9011</v>
+        <v>55501</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="D62">
-        <v>9366</v>
+        <v>55501</v>
       </c>
       <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>1240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
         <v>20</v>
-      </c>
-      <c r="F62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63">
-        <v>41</v>
-      </c>
-      <c r="D63">
-        <v>9707</v>
-      </c>
-      <c r="E63" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C64">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>10866</v>
+        <v>1240</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D65">
-        <v>285</v>
+        <v>5785</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>415</v>
+        <v>6371</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>51</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D67">
-        <v>434</v>
+        <v>6371</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D68">
-        <v>434</v>
+        <v>6488</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69">
-        <v>708</v>
+        <v>6990</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D70">
-        <v>545</v>
+        <v>7340</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D71">
-        <v>742</v>
+        <v>9011</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <v>860</v>
+        <v>9366</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>55</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C73">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D73">
-        <v>1068</v>
+        <v>9707</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D74">
-        <v>1090</v>
+        <v>10866</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>981</v>
+        <v>10866</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>1158</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1018</v>
+        <v>415</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>1423</v>
+        <v>434</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
       <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>708</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
         <v>11</v>
-      </c>
-      <c r="C80">
-        <v>34</v>
-      </c>
-      <c r="D80">
-        <v>6155</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81">
-        <v>36</v>
-      </c>
-      <c r="D81">
-        <v>6223</v>
-      </c>
-      <c r="E81" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
       <c r="D83">
-        <v>960</v>
+        <v>742</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>58</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
       <c r="B84" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C84">
         <v>5</v>
       </c>
       <c r="D84">
-        <v>1062</v>
+        <v>860</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="2:6">
@@ -2750,246 +2734,246 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>2458</v>
+        <v>860</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>1174</v>
+        <v>1068</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>2634</v>
+        <v>1090</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>60</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
       <c r="B88" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>665</v>
+        <v>981</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D89">
-        <v>680</v>
+        <v>1158</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C90">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>4554</v>
+        <v>1018</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C91">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D91">
-        <v>8745</v>
+        <v>1423</v>
       </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C92">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>8979</v>
+        <v>1423</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>56</v>
+      </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>11927</v>
+        <v>440</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
         <v>34</v>
       </c>
-      <c r="C94">
-        <v>98</v>
-      </c>
       <c r="D94">
-        <v>13742</v>
+        <v>6155</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="D95">
-        <v>15116</v>
+        <v>6223</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
         <v>36</v>
       </c>
-      <c r="C96">
-        <v>124</v>
-      </c>
       <c r="D96">
-        <v>15290</v>
+        <v>6223</v>
       </c>
       <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>588</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" t="s">
         <v>16</v>
       </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" t="s">
-        <v>48</v>
-      </c>
-      <c r="C97">
-        <v>173</v>
-      </c>
-      <c r="D97">
-        <v>20148</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
       <c r="C98">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>2829</v>
+        <v>960</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="2:6">
@@ -2997,279 +2981,291 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>3076</v>
+        <v>960</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>58</v>
+      </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C100">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D100">
-        <v>3434</v>
+        <v>1062</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>3456</v>
+        <v>2458</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D102">
-        <v>3446</v>
+        <v>2458</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D103">
-        <v>4209</v>
+        <v>1174</v>
       </c>
       <c r="E103" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D104">
-        <v>4143</v>
+        <v>2634</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="2:6">
       <c r="B105" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D105">
-        <v>4158</v>
+        <v>2634</v>
       </c>
       <c r="E105" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>64</v>
-      </c>
+      <c r="D106">
+        <v>665</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
       <c r="B107" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>258</v>
+        <v>680</v>
       </c>
       <c r="E107" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>65</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
       <c r="B108" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D108">
-        <v>2608</v>
+        <v>4554</v>
       </c>
       <c r="E108" t="s">
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="2:6">
       <c r="B109" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D109">
-        <v>2569</v>
+        <v>8745</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
         <v>66</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110">
-        <v>10</v>
-      </c>
       <c r="D110">
-        <v>1444</v>
+        <v>8979</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>67</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
       <c r="B111" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D111">
-        <v>1569</v>
+        <v>11927</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>68</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
       <c r="B112" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="D112">
-        <v>1240</v>
+        <v>13742</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>69</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
       <c r="B113" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D113">
-        <v>2176</v>
+        <v>15116</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>71</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114">
+        <v>124</v>
+      </c>
+      <c r="D114">
+        <v>15290</v>
+      </c>
+      <c r="E114" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
       <c r="B115" t="s">
         <v>7</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="D115">
-        <v>98</v>
+        <v>20148</v>
       </c>
       <c r="E115" t="s">
         <v>20</v>
@@ -3278,549 +3274,923 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>72</v>
-      </c>
+    <row r="116" spans="2:6">
       <c r="B116" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="D116">
-        <v>815</v>
+        <v>20148</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>1701</v>
+        <v>2829</v>
       </c>
       <c r="E117" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118">
         <v>10</v>
       </c>
-      <c r="F117" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>74</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118">
-        <v>33</v>
-      </c>
       <c r="D118">
-        <v>8303</v>
+        <v>3076</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>75</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
       <c r="B119" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C119">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D119">
-        <v>1926</v>
+        <v>3434</v>
       </c>
       <c r="E119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>77</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>3456</v>
+      </c>
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
       <c r="B121" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C121">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D121">
-        <v>2547</v>
+        <v>3446</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>78</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
       <c r="B122" t="s">
         <v>7</v>
       </c>
       <c r="C122">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D122">
-        <v>3892</v>
+        <v>4209</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>79</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
       <c r="B123" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C123">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>4143</v>
+      </c>
+      <c r="E123" t="s">
+        <v>62</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>4158</v>
+      </c>
+      <c r="E124" t="s">
+        <v>62</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
         <v>11</v>
       </c>
-      <c r="D123">
-        <v>1381</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>80</v>
-      </c>
-      <c r="B124" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124">
-        <v>19</v>
-      </c>
-      <c r="D124">
-        <v>2199</v>
-      </c>
-      <c r="E124" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126">
-        <v>8</v>
-      </c>
-      <c r="D126">
-        <v>2380</v>
-      </c>
-      <c r="E126" t="s">
-        <v>31</v>
-      </c>
-      <c r="F126" t="s">
-        <v>8</v>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>4158</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>5129</v>
+        <v>258</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F127" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C128">
         <v>9</v>
       </c>
       <c r="D128">
-        <v>2849</v>
+        <v>2608</v>
       </c>
       <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>2569</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>2569</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131">
         <v>10</v>
       </c>
-      <c r="F128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>85</v>
-      </c>
-      <c r="B129" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129">
-        <v>12</v>
-      </c>
-      <c r="D129">
-        <v>4687</v>
-      </c>
-      <c r="E129" t="s">
-        <v>16</v>
-      </c>
-      <c r="F129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130">
-        <v>13</v>
-      </c>
-      <c r="D130">
-        <v>3574</v>
-      </c>
-      <c r="E130" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>87</v>
+      <c r="D131">
+        <v>1444</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D132">
-        <v>358</v>
+        <v>1569</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>342</v>
+        <v>1240</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D134">
-        <v>470</v>
+        <v>2176</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>91</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
       <c r="B135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135">
-        <v>1585</v>
+        <v>2176</v>
       </c>
       <c r="E135" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>92</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136">
-        <v>2</v>
-      </c>
-      <c r="D136">
-        <v>407</v>
-      </c>
-      <c r="E136" t="s">
-        <v>8</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
-        <v>93</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>71</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>98</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C138">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>5219</v>
+        <v>815</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D139">
-        <v>1529</v>
+        <v>1701</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D140">
-        <v>483</v>
+        <v>8303</v>
       </c>
       <c r="E140" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C141">
         <v>12</v>
       </c>
       <c r="D141">
-        <v>3995</v>
+        <v>1926</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D143">
-        <v>1210</v>
+        <v>2547</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
         <v>7</v>
       </c>
-      <c r="C144">
-        <v>10</v>
-      </c>
       <c r="D144">
-        <v>1907</v>
+        <v>3892</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>758</v>
+        <v>1381</v>
       </c>
       <c r="E145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
+        <v>80</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>19</v>
+      </c>
+      <c r="D146">
+        <v>2199</v>
+      </c>
+      <c r="E146" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>82</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>2380</v>
+      </c>
+      <c r="E148" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>5129</v>
+      </c>
+      <c r="E149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>2849</v>
+      </c>
+      <c r="E150" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>85</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>4687</v>
+      </c>
+      <c r="E151" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>86</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>3574</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>88</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>358</v>
+      </c>
+      <c r="E154" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>89</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>342</v>
+      </c>
+      <c r="E155" t="s">
+        <v>32</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>470</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>91</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="D157">
+        <v>1585</v>
+      </c>
+      <c r="E157" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>92</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>407</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>94</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>13</v>
+      </c>
+      <c r="D160">
+        <v>5219</v>
+      </c>
+      <c r="E160" t="s">
+        <v>32</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>95</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>7</v>
+      </c>
+      <c r="D161">
+        <v>1529</v>
+      </c>
+      <c r="E161" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>96</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>483</v>
+      </c>
+      <c r="E162" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>3995</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>99</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>1210</v>
+      </c>
+      <c r="E165" t="s">
+        <v>32</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>100</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>1907</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>101</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>758</v>
+      </c>
+      <c r="E167" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
         <v>102</v>
       </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146">
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
         <v>6</v>
       </c>
-      <c r="D146">
+      <c r="D168">
         <v>2449</v>
       </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
-        <v>8</v>
+      <c r="E168" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="111">
   <si>
     <t>版本号</t>
   </si>
@@ -224,6 +224,30 @@
   </si>
   <si>
     <t>SRA2021-G05-需求变更影响报告</t>
+  </si>
+  <si>
+    <t>项目总结阶段</t>
+  </si>
+  <si>
+    <t>SRA2021-G05-项目总结报告</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>总体设计阶段</t>
+  </si>
+  <si>
+    <t>SRA2021-G05-总体设计</t>
+  </si>
+  <si>
+    <t>SRA2020-G05-数据库设计说明</t>
+  </si>
+  <si>
+    <t>SRA2021-G05-软件测试计划</t>
   </si>
   <si>
     <t>翻转课堂01</t>
@@ -330,9 +354,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -353,29 +377,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,16 +404,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,11 +427,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,7 +476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,6 +498,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -505,13 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,7 +547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +577,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,25 +655,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,91 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,21 +748,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -771,13 +780,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,6 +809,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -804,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,133 +840,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,10 +1299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3633,246 +3657,186 @@
         <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D137">
-        <v>98</v>
+        <v>31444</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138">
+        <v>64</v>
+      </c>
+      <c r="D138">
+        <v>31444</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B140" t="s">
         <v>72</v>
       </c>
-      <c r="B138" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>815</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="C140">
+        <v>42</v>
+      </c>
+      <c r="D140">
+        <v>10526</v>
+      </c>
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1"/>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141">
+        <v>42</v>
+      </c>
+      <c r="D141">
+        <v>10526</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142">
+        <v>66</v>
+      </c>
+      <c r="D142">
+        <v>15489</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1"/>
+      <c r="B143" t="s">
+        <v>73</v>
+      </c>
+      <c r="C143">
+        <v>66</v>
+      </c>
+      <c r="D143">
+        <v>15489</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B144" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144">
+        <v>22</v>
+      </c>
+      <c r="D144">
+        <v>7614</v>
+      </c>
+      <c r="E144" t="s">
         <v>32</v>
       </c>
-      <c r="F138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1"/>
+      <c r="B145" t="s">
         <v>73</v>
       </c>
-      <c r="B139" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139">
-        <v>1701</v>
-      </c>
-      <c r="E139" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140">
-        <v>33</v>
-      </c>
-      <c r="D140">
-        <v>8303</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>75</v>
-      </c>
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141">
-        <v>12</v>
-      </c>
-      <c r="D141">
-        <v>1926</v>
-      </c>
-      <c r="E141" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>77</v>
-      </c>
-      <c r="B143" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143">
-        <v>13</v>
-      </c>
-      <c r="D143">
-        <v>2547</v>
-      </c>
-      <c r="E143" t="s">
-        <v>32</v>
-      </c>
-      <c r="F143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
+      <c r="C145">
+        <v>22</v>
+      </c>
+      <c r="D145">
+        <v>7614</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B144" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144">
-        <v>7</v>
-      </c>
-      <c r="D144">
-        <v>3892</v>
-      </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>79</v>
-      </c>
-      <c r="B145" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145">
-        <v>11</v>
-      </c>
-      <c r="D145">
-        <v>1381</v>
-      </c>
-      <c r="E145" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>80</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146">
-        <v>19</v>
-      </c>
-      <c r="D146">
-        <v>2199</v>
-      </c>
-      <c r="E146" t="s">
-        <v>20</v>
-      </c>
-      <c r="F146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B148" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148">
-        <v>8</v>
-      </c>
-      <c r="D148">
-        <v>2380</v>
-      </c>
-      <c r="E148" t="s">
-        <v>32</v>
-      </c>
-      <c r="F148" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" t="s">
-        <v>83</v>
-      </c>
-      <c r="B149" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149">
-        <v>12</v>
-      </c>
-      <c r="D149">
-        <v>5129</v>
-      </c>
-      <c r="E149" t="s">
-        <v>32</v>
-      </c>
-      <c r="F149" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B150" t="s">
         <v>13</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>2849</v>
+        <v>98</v>
       </c>
       <c r="E150" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -3880,19 +3844,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>4687</v>
+        <v>815</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
@@ -3900,84 +3864,84 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
       </c>
       <c r="C152">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>3574</v>
+        <v>1701</v>
       </c>
       <c r="E152" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F152" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1" t="s">
-        <v>87</v>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>82</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>33</v>
+      </c>
+      <c r="D153">
+        <v>8303</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D154">
-        <v>358</v>
+        <v>1926</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F154" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" t="s">
-        <v>89</v>
-      </c>
-      <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>342</v>
-      </c>
-      <c r="E155" t="s">
-        <v>32</v>
-      </c>
-      <c r="F155" t="s">
-        <v>9</v>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D156">
-        <v>470</v>
+        <v>2547</v>
       </c>
       <c r="E156" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
@@ -3985,19 +3949,19 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
       </c>
       <c r="C157">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D157">
-        <v>1585</v>
+        <v>3892</v>
       </c>
       <c r="E157" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
@@ -4005,64 +3969,64 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D158">
-        <v>407</v>
+        <v>1381</v>
       </c>
       <c r="E158" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" t="s">
-        <v>94</v>
-      </c>
-      <c r="B160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160">
-        <v>13</v>
-      </c>
-      <c r="D160">
-        <v>5219</v>
-      </c>
-      <c r="E160" t="s">
-        <v>32</v>
-      </c>
-      <c r="F160" t="s">
-        <v>9</v>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>88</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>19</v>
+      </c>
+      <c r="D159">
+        <v>2199</v>
+      </c>
+      <c r="E159" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161">
-        <v>1529</v>
+        <v>2380</v>
       </c>
       <c r="E161" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
         <v>9</v>
@@ -4070,19 +4034,19 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
       </c>
       <c r="C162">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D162">
-        <v>483</v>
+        <v>5129</v>
       </c>
       <c r="E162" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
         <v>9</v>
@@ -4090,84 +4054,84 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B163" t="s">
         <v>13</v>
       </c>
       <c r="C163">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>2849</v>
+      </c>
+      <c r="E163" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>93</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164">
         <v>12</v>
       </c>
-      <c r="D163">
-        <v>3995</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
-        <v>98</v>
+      <c r="D164">
+        <v>4687</v>
+      </c>
+      <c r="E164" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B165" t="s">
         <v>13</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D165">
-        <v>1210</v>
+        <v>3574</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F165" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" t="s">
-        <v>100</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166">
-        <v>10</v>
-      </c>
-      <c r="D166">
-        <v>1907</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" t="s">
-        <v>9</v>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>758</v>
+        <v>358</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
         <v>9</v>
@@ -4175,21 +4139,251 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
+        <v>97</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>342</v>
+      </c>
+      <c r="E168" t="s">
+        <v>32</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>98</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>470</v>
+      </c>
+      <c r="E169" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>99</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>1585</v>
+      </c>
+      <c r="E170" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>100</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>407</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
         <v>102</v>
       </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168">
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>13</v>
+      </c>
+      <c r="D173">
+        <v>5219</v>
+      </c>
+      <c r="E173" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>103</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>7</v>
+      </c>
+      <c r="D174">
+        <v>1529</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>104</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>483</v>
+      </c>
+      <c r="E175" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>105</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176">
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>3995</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>107</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>1210</v>
+      </c>
+      <c r="E178" t="s">
+        <v>32</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>108</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>1907</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>109</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>758</v>
+      </c>
+      <c r="E180" t="s">
+        <v>20</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>110</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181">
         <v>6</v>
       </c>
-      <c r="D168">
+      <c r="D181">
         <v>2449</v>
       </c>
-      <c r="E168" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="E181" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="111">
   <si>
     <t>版本号</t>
   </si>
@@ -354,10 +354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -377,21 +377,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,8 +420,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,9 +458,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,29 +481,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -467,24 +490,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,13 +514,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -529,13 +529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,31 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,13 +583,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,97 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +650,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,8 +726,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,8 +765,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,145 +828,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1299,10 +1299,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3715,18 +3715,20 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1"/>
+      <c r="A141" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B141" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C141">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D141">
-        <v>10526</v>
+        <v>15489</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F141" t="s">
         <v>9</v>
@@ -3734,109 +3736,113 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
         <v>72</v>
       </c>
       <c r="C142">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D142">
-        <v>15489</v>
+        <v>7614</v>
       </c>
       <c r="E142" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F142" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:1">
       <c r="A143" s="1"/>
-      <c r="B143" t="s">
-        <v>73</v>
-      </c>
-      <c r="C143">
-        <v>66</v>
-      </c>
-      <c r="D143">
-        <v>15489</v>
-      </c>
-      <c r="E143" t="s">
-        <v>15</v>
-      </c>
-      <c r="F143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B144" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144">
-        <v>22</v>
-      </c>
-      <c r="D144">
-        <v>7614</v>
-      </c>
-      <c r="E144" t="s">
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>79</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>98</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>80</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>815</v>
+      </c>
+      <c r="E148" t="s">
         <v>32</v>
       </c>
-      <c r="F144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1"/>
-      <c r="B145" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145">
-        <v>22</v>
-      </c>
-      <c r="D145">
-        <v>7614</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1" t="s">
-        <v>78</v>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>1701</v>
+      </c>
+      <c r="E149" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B150" t="s">
         <v>13</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D150">
-        <v>98</v>
+        <v>8303</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -3844,59 +3850,44 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D151">
-        <v>815</v>
+        <v>1926</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" t="s">
-        <v>81</v>
-      </c>
-      <c r="B152" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152">
-        <v>3</v>
-      </c>
-      <c r="D152">
-        <v>1701</v>
-      </c>
-      <c r="E152" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" t="s">
-        <v>9</v>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
       </c>
       <c r="C153">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D153">
-        <v>8303</v>
+        <v>2547</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
@@ -3904,84 +3895,84 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>1926</v>
+        <v>3892</v>
       </c>
       <c r="E154" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F154" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
-        <v>84</v>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>87</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155">
+        <v>1381</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
       </c>
       <c r="C156">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D156">
-        <v>2547</v>
+        <v>2199</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
-        <v>86</v>
-      </c>
-      <c r="B157" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157">
-        <v>7</v>
-      </c>
-      <c r="D157">
-        <v>3892</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>9</v>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D158">
-        <v>1381</v>
+        <v>2380</v>
       </c>
       <c r="E158" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
@@ -3989,44 +3980,59 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
       </c>
       <c r="C159">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D159">
-        <v>2199</v>
+        <v>5129</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="1" t="s">
-        <v>89</v>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>92</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>2849</v>
+      </c>
+      <c r="E160" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
       </c>
       <c r="C161">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D161">
-        <v>2380</v>
+        <v>4687</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F161" t="s">
         <v>9</v>
@@ -4034,59 +4040,44 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D162">
-        <v>5129</v>
+        <v>3574</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" t="s">
-        <v>92</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163">
-        <v>9</v>
-      </c>
-      <c r="D163">
-        <v>2849</v>
-      </c>
-      <c r="E163" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" t="s">
-        <v>9</v>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
       </c>
       <c r="C164">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D164">
-        <v>4687</v>
+        <v>358</v>
       </c>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
         <v>9</v>
@@ -4094,44 +4085,59 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B165" t="s">
         <v>13</v>
       </c>
       <c r="C165">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>3574</v>
+        <v>342</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
-        <v>95</v>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>470</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D167">
-        <v>358</v>
+        <v>1585</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F167" t="s">
         <v>9</v>
@@ -4139,59 +4145,44 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F168" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" t="s">
-        <v>98</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-      <c r="D169">
-        <v>470</v>
-      </c>
-      <c r="E169" t="s">
-        <v>15</v>
-      </c>
-      <c r="F169" t="s">
-        <v>9</v>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
       </c>
       <c r="C170">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D170">
-        <v>1585</v>
+        <v>5219</v>
       </c>
       <c r="E170" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
         <v>9</v>
@@ -4199,84 +4190,84 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D171">
-        <v>407</v>
+        <v>1529</v>
       </c>
       <c r="E171" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F171" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="1" t="s">
-        <v>101</v>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>104</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>483</v>
+      </c>
+      <c r="E172" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B173" t="s">
         <v>13</v>
       </c>
       <c r="C173">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D173">
-        <v>5219</v>
+        <v>3995</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F173" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" t="s">
-        <v>103</v>
-      </c>
-      <c r="B174" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174">
-        <v>7</v>
-      </c>
-      <c r="D174">
-        <v>1529</v>
-      </c>
-      <c r="E174" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174" t="s">
-        <v>9</v>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
       </c>
       <c r="C175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>483</v>
+        <v>1210</v>
       </c>
       <c r="E175" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F175" t="s">
         <v>9</v>
@@ -4284,16 +4275,16 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
       </c>
       <c r="C176">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>3995</v>
+        <v>1907</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
@@ -4302,88 +4293,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
-        <v>106</v>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>109</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+      <c r="D177">
+        <v>758</v>
+      </c>
+      <c r="E177" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B178" t="s">
         <v>13</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D178">
-        <v>1210</v>
+        <v>2449</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F178" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" t="s">
-        <v>108</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179">
-        <v>10</v>
-      </c>
-      <c r="D179">
-        <v>1907</v>
-      </c>
-      <c r="E179" t="s">
-        <v>9</v>
-      </c>
-      <c r="F179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" t="s">
-        <v>109</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180">
-        <v>4</v>
-      </c>
-      <c r="D180">
-        <v>758</v>
-      </c>
-      <c r="E180" t="s">
-        <v>20</v>
-      </c>
-      <c r="F180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" t="s">
-        <v>110</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181">
-        <v>6</v>
-      </c>
-      <c r="D181">
-        <v>2449</v>
-      </c>
-      <c r="E181" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="109">
   <si>
     <t>版本号</t>
   </si>
@@ -230,12 +230,6 @@
   </si>
   <si>
     <t>SRA2021-G05-项目总结报告</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <t>总体设计阶段</t>
@@ -354,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -376,18 +370,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,29 +401,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,13 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -458,8 +430,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,14 +440,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -491,7 +471,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,9 +493,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,6 +502,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,7 +523,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,13 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +595,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,145 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,11 +756,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,17 +780,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,11 +808,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,7 +825,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,133 +834,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1299,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J148" sqref="J148"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3657,7 +3651,7 @@
         <v>71</v>
       </c>
       <c r="B137" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C137">
         <v>64</v>
@@ -3674,7 +3668,7 @@
     </row>
     <row r="138" spans="2:6">
       <c r="B138" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C138">
         <v>64</v>
@@ -3691,15 +3685,15 @@
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C140">
         <v>42</v>
@@ -3715,114 +3709,125 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="A141" s="2"/>
       <c r="B141" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D141">
-        <v>15489</v>
+        <v>10642</v>
       </c>
       <c r="E141" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B142" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C142">
+        <v>66</v>
+      </c>
+      <c r="D142">
+        <v>15489</v>
+      </c>
+      <c r="E142" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2"/>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>66</v>
+      </c>
+      <c r="D143">
+        <v>15417</v>
+      </c>
+      <c r="E143" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
         <v>22</v>
       </c>
-      <c r="D142">
+      <c r="D144">
         <v>7614</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E144" t="s">
         <v>32</v>
       </c>
-      <c r="F142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1"/>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>22</v>
+      </c>
+      <c r="D145">
+        <v>7744</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" t="s">
-        <v>79</v>
-      </c>
-      <c r="B147" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>98</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" t="s">
-        <v>80</v>
-      </c>
-      <c r="B148" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>815</v>
-      </c>
-      <c r="E148" t="s">
-        <v>32</v>
-      </c>
-      <c r="F148" t="s">
-        <v>9</v>
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B149" t="s">
         <v>13</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>1701</v>
+        <v>98</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F149" t="s">
         <v>9</v>
@@ -3830,19 +3835,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B150" t="s">
         <v>13</v>
       </c>
       <c r="C150">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>8303</v>
+        <v>815</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
         <v>9</v>
@@ -3850,84 +3855,84 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
       </c>
       <c r="C151">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>1926</v>
+        <v>1701</v>
       </c>
       <c r="E151" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F151" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="1" t="s">
-        <v>84</v>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>33</v>
+      </c>
+      <c r="D152">
+        <v>8303</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
       </c>
       <c r="C153">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D153">
-        <v>2547</v>
+        <v>1926</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F153" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" t="s">
-        <v>86</v>
-      </c>
-      <c r="B154" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154">
-        <v>7</v>
-      </c>
-      <c r="D154">
-        <v>3892</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" t="s">
-        <v>9</v>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B155" t="s">
         <v>13</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D155">
-        <v>1381</v>
+        <v>2547</v>
       </c>
       <c r="E155" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F155" t="s">
         <v>9</v>
@@ -3935,84 +3940,84 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
       </c>
       <c r="C156">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>2199</v>
+        <v>3892</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="1" t="s">
-        <v>89</v>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>1381</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D158">
-        <v>2380</v>
+        <v>2199</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" t="s">
-        <v>91</v>
-      </c>
-      <c r="B159" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159">
-        <v>12</v>
-      </c>
-      <c r="D159">
-        <v>5129</v>
-      </c>
-      <c r="E159" t="s">
-        <v>32</v>
-      </c>
-      <c r="F159" t="s">
-        <v>9</v>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
       <c r="C160">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160">
-        <v>2849</v>
+        <v>2380</v>
       </c>
       <c r="E160" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
         <v>9</v>
@@ -4020,7 +4025,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
@@ -4029,10 +4034,10 @@
         <v>12</v>
       </c>
       <c r="D161">
-        <v>4687</v>
+        <v>5129</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
         <v>9</v>
@@ -4040,72 +4045,72 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
       </c>
       <c r="C162">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>3574</v>
+        <v>2849</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F162" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
-        <v>95</v>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>91</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>4687</v>
+      </c>
+      <c r="E163" t="s">
+        <v>20</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D164">
-        <v>358</v>
+        <v>3574</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F164" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" t="s">
-        <v>97</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165">
-        <v>342</v>
-      </c>
-      <c r="E165" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165" t="s">
-        <v>9</v>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B166" t="s">
         <v>13</v>
@@ -4114,10 +4119,10 @@
         <v>2</v>
       </c>
       <c r="D166">
-        <v>470</v>
+        <v>358</v>
       </c>
       <c r="E166" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
         <v>9</v>
@@ -4125,19 +4130,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>1585</v>
+        <v>342</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
         <v>9</v>
@@ -4145,7 +4150,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
@@ -4154,75 +4159,75 @@
         <v>2</v>
       </c>
       <c r="D168">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="E168" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F168" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1" t="s">
-        <v>101</v>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>97</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>1585</v>
+      </c>
+      <c r="E169" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
       </c>
       <c r="C170">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>5219</v>
+        <v>407</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F170" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
-      <c r="A171" t="s">
-        <v>103</v>
-      </c>
-      <c r="B171" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171">
-        <v>7</v>
-      </c>
-      <c r="D171">
-        <v>1529</v>
-      </c>
-      <c r="E171" t="s">
-        <v>15</v>
-      </c>
-      <c r="F171" t="s">
-        <v>9</v>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B172" t="s">
         <v>13</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D172">
-        <v>483</v>
+        <v>5219</v>
       </c>
       <c r="E172" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
@@ -4230,84 +4235,84 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B173" t="s">
         <v>13</v>
       </c>
       <c r="C173">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D173">
-        <v>3995</v>
+        <v>1529</v>
       </c>
       <c r="E173" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F173" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
-        <v>106</v>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>483</v>
+      </c>
+      <c r="E174" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D175">
-        <v>1210</v>
+        <v>3995</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F175" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" t="s">
-        <v>108</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176">
-        <v>10</v>
-      </c>
-      <c r="D176">
-        <v>1907</v>
-      </c>
-      <c r="E176" t="s">
-        <v>9</v>
-      </c>
-      <c r="F176" t="s">
-        <v>9</v>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>758</v>
+        <v>1210</v>
       </c>
       <c r="E177" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
         <v>9</v>
@@ -4315,21 +4320,61 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B178" t="s">
         <v>13</v>
       </c>
       <c r="C178">
+        <v>10</v>
+      </c>
+      <c r="D178">
+        <v>1907</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>107</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179">
+        <v>758</v>
+      </c>
+      <c r="E179" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>108</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180">
         <v>6</v>
       </c>
-      <c r="D178">
+      <c r="D180">
         <v>2449</v>
       </c>
-      <c r="E178" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
+++ b/项目总结/汇总表格/SRA2021_G05_文档汇总表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="109">
   <si>
     <t>版本号</t>
   </si>
@@ -348,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -370,18 +370,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,16 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,6 +401,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,17 +421,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +452,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -462,10 +476,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,35 +513,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -523,7 +523,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,43 +637,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,109 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,41 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -809,8 +774,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,16 +834,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,115 +852,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1295,14 +1295,14 @@
   <sheetPr/>
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="40.25" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -1348,7 +1348,9 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1368,9 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1403,7 +1407,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +1447,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1457,7 +1467,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +1487,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1491,7 +1507,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1508,7 +1527,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1547,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1567,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1587,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1576,7 +1607,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1593,7 +1627,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1630,7 +1667,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1707,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -1684,7 +1727,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -1701,7 +1747,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -1718,7 +1767,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1787,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +1827,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
@@ -1789,7 +1847,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -1806,7 +1867,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1887,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1907,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -1882,7 +1952,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
@@ -1899,7 +1972,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1992,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +2032,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
@@ -1970,7 +2052,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
@@ -1987,7 +2072,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
@@ -2004,7 +2092,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2112,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2132,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
@@ -2055,7 +2152,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
       <c r="B45" t="s">
         <v>36</v>
       </c>
@@ -2072,7 +2172,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
       <c r="B46" t="s">
         <v>37</v>
       </c>
@@ -2089,7 +2192,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2212,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
@@ -2123,7 +2232,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
@@ -2140,7 +2252,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
       <c r="B50" t="s">
         <v>38</v>
       </c>
@@ -2157,7 +2272,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
       <c r="B51" t="s">
         <v>39</v>
       </c>
@@ -2174,7 +2292,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
       <c r="B52" t="s">
         <v>40</v>
       </c>
@@ -2191,7 +2312,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
       <c r="B53" t="s">
         <v>41</v>
       </c>
@@ -2208,7 +2332,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
       <c r="B54" t="s">
         <v>42</v>
       </c>
@@ -2225,7 +2352,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
       <c r="B55" t="s">
         <v>43</v>
       </c>
@@ -2242,7 +2372,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
       <c r="B56" t="s">
         <v>44</v>
       </c>
@@ -2259,7 +2392,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
@@ -2276,7 +2412,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -2293,7 +2432,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
@@ -2310,7 +2452,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
       <c r="B60" t="s">
         <v>45</v>
       </c>
@@ -2327,7 +2472,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
       <c r="B61" t="s">
         <v>46</v>
       </c>
@@ -2344,7 +2492,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2532,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>47</v>
+      </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
@@ -2418,7 +2572,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
@@ -2435,7 +2592,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
@@ -2452,7 +2612,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
@@ -2469,7 +2632,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
@@ -2486,7 +2652,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
       <c r="B70" t="s">
         <v>34</v>
       </c>
@@ -2503,7 +2672,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
       <c r="B71" t="s">
         <v>35</v>
       </c>
@@ -2520,7 +2692,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
@@ -2537,7 +2712,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
       <c r="B73" t="s">
         <v>37</v>
       </c>
@@ -2554,7 +2732,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2752,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2872,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2900,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
@@ -2730,7 +2920,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
       <c r="B84" t="s">
         <v>17</v>
       </c>
@@ -2747,7 +2940,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +2980,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>55</v>
+      </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
@@ -2801,7 +3000,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>55</v>
+      </c>
       <c r="B88" t="s">
         <v>17</v>
       </c>
@@ -2818,7 +3020,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>55</v>
+      </c>
       <c r="B89" t="s">
         <v>18</v>
       </c>
@@ -2835,7 +3040,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>55</v>
+      </c>
       <c r="B90" t="s">
         <v>19</v>
       </c>
@@ -2852,7 +3060,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
       <c r="B91" t="s">
         <v>34</v>
       </c>
@@ -2869,7 +3080,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
@@ -2906,7 +3120,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>56</v>
+      </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
@@ -2923,7 +3140,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
       <c r="B95" t="s">
         <v>17</v>
       </c>
@@ -2940,7 +3160,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
@@ -2977,7 +3200,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>57</v>
+      </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
@@ -2994,7 +3220,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>57</v>
+      </c>
       <c r="B99" t="s">
         <v>11</v>
       </c>
@@ -3031,7 +3260,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>58</v>
+      </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3280,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>58</v>
+      </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
@@ -3085,7 +3320,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>59</v>
+      </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3340,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>59</v>
+      </c>
       <c r="B105" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3380,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>60</v>
+      </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
@@ -3156,7 +3400,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
       <c r="B108" t="s">
         <v>17</v>
       </c>
@@ -3173,7 +3420,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>60</v>
+      </c>
       <c r="B109" t="s">
         <v>18</v>
       </c>
@@ -3190,7 +3440,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
       <c r="B110" t="s">
         <v>19</v>
       </c>
@@ -3207,7 +3460,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>60</v>
+      </c>
       <c r="B111" t="s">
         <v>34</v>
       </c>
@@ -3224,7 +3480,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>60</v>
+      </c>
       <c r="B112" t="s">
         <v>35</v>
       </c>
@@ -3241,7 +3500,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
       <c r="B113" t="s">
         <v>36</v>
       </c>
@@ -3258,7 +3520,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
       <c r="B114" t="s">
         <v>37</v>
       </c>
@@ -3275,7 +3540,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
       <c r="B115" t="s">
         <v>7</v>
       </c>
@@ -3292,7 +3560,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
       <c r="B116" t="s">
         <v>11</v>
       </c>
@@ -3329,7 +3600,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
@@ -3346,7 +3620,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
       <c r="B119" t="s">
         <v>17</v>
       </c>
@@ -3363,7 +3640,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
       <c r="B120" t="s">
         <v>18</v>
       </c>
@@ -3380,7 +3660,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>61</v>
+      </c>
       <c r="B121" t="s">
         <v>19</v>
       </c>
@@ -3397,7 +3680,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
       <c r="B122" t="s">
         <v>7</v>
       </c>
@@ -3414,7 +3700,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>61</v>
+      </c>
       <c r="B123" t="s">
         <v>21</v>
       </c>
@@ -3431,7 +3720,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
       <c r="B124" t="s">
         <v>22</v>
       </c>
@@ -3448,7 +3740,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>61</v>
+      </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
@@ -3510,7 +3805,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>65</v>
+      </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
@@ -3527,7 +3825,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>65</v>
+      </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
@@ -3624,7 +3925,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="2:6">
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>69</v>
+      </c>
       <c r="B135" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3970,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="2:6">
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>71</v>
+      </c>
       <c r="B138" t="s">
         <v>11</v>
       </c>
@@ -3709,7 +4016,9 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="2"/>
+      <c r="A141" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
@@ -3747,7 +4056,9 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="2"/>
+      <c r="A143" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
@@ -3785,7 +4096,9 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="1"/>
+      <c r="A145" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
